--- a/dataFiles/data.xlsx
+++ b/dataFiles/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>anand1234@gmail.com</t>
+  </si>
+  <si>
+    <t>sanchita@sourcesoftsolutions.com</t>
+  </si>
+  <si>
+    <t>Testing123@</t>
   </si>
 </sst>
 </file>
@@ -63,8 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,15 +375,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -389,7 +399,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>123456</v>
       </c>
     </row>
@@ -397,8 +407,16 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dataFiles/data.xlsx
+++ b/dataFiles/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Email</t>
   </si>
@@ -34,6 +34,93 @@
   </si>
   <si>
     <t>Testing123@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstName </t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>anand12</t>
+  </si>
+  <si>
+    <t>Anand2334</t>
+  </si>
+  <si>
+    <t>ashish</t>
+  </si>
+  <si>
+    <t>Vikash</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>kalra</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>anand</t>
+  </si>
+  <si>
+    <t>frhhfsdg</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Gaziabad</t>
+  </si>
+  <si>
+    <t>Faridabad</t>
+  </si>
+  <si>
+    <t>anand@gmail.com</t>
+  </si>
+  <si>
+    <t>anand2@gmail.com</t>
+  </si>
+  <si>
+    <t>anand3@gmail.com</t>
+  </si>
+  <si>
+    <t>anand4@gmail.com</t>
+  </si>
+  <si>
+    <t>anand5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -69,10 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,12 +516,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>91</v>
+      </c>
+      <c r="D2">
+        <v>9876434554</v>
+      </c>
+      <c r="E2">
+        <v>123456</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>9876434555</v>
+      </c>
+      <c r="E3">
+        <v>123456</v>
+      </c>
+      <c r="F3">
+        <v>1234567</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>9876434556</v>
+      </c>
+      <c r="E4">
+        <v>123456</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>9876434557</v>
+      </c>
+      <c r="E5">
+        <v>987654</v>
+      </c>
+      <c r="F5">
+        <v>123456</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>9876434558</v>
+      </c>
+      <c r="E6">
+        <v>654789</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
